--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Software\Unity\UnityProject\X-ET7\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F010EA7-D806-954C-B32D-F9088E7A7EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A8A69-122E-4E9F-8422-F10DDBC0F9A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="580" windowWidth="17640" windowHeight="11380" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="11325" yWindow="585" windowWidth="17640" windowHeight="11385" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,42 @@
   </si>
   <si>
     <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Row_Clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column_Clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,26 +534,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -544,7 +580,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -569,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,6 +633,50 @@
         <v>6</v>
       </c>
       <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Software\Unity\UnityProject\X-ET7\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A8A69-122E-4E9F-8422-F10DDBC0F9A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDAB4F6-04D7-448F-A73F-A1C81C8473E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11325" yWindow="585" windowWidth="17640" windowHeight="11385" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,42 @@
   </si>
   <si>
     <t>SweetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progressing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,6 +714,41 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
